--- a/agile-server/src/main/resources/excelTemplate/storyExportTemplate.xlsx
+++ b/agile-server/src/main/resources/excelTemplate/storyExportTemplate.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10">
   <si>
     <r>
       <t>*</t>
@@ -41,13 +41,19 @@
     <t>优先级</t>
   </si>
   <si>
-    <t>业务价值</t>
+    <t>父工作项</t>
   </si>
   <si>
-    <t>系统</t>
+    <t>故事点</t>
   </si>
   <si>
-    <t>工作项ID</t>
+    <t>开始日期</t>
+  </si>
+  <si>
+    <t>结束日期</t>
+  </si>
+  <si>
+    <t>预计工时</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1059,7 @@
   <dimension ref="A1:XET1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1087,18 +1093,20 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="J1" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="5"/>
       <c r="L1" s="5"/>
